--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44397</v>
+        <v>44208</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="N2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44176</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
         <v>7000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44400</v>
+        <v>44397</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44351</v>
+        <v>44176</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44351</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -927,13 +927,13 @@
         <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44208</v>
+        <v>44400</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
         <v>10000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>10000</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44162</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
         <v>7000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44208</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44176</v>
+        <v>44351</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44351</v>
+        <v>44162</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44400</v>
+        <v>44176</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44162</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
         <v>7000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44208</v>
+        <v>44176</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44397</v>
+        <v>44208</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44351</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -847,13 +847,13 @@
         <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44162</v>
+        <v>44351</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44176</v>
+        <v>44397</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44397</v>
+        <v>44491</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,31 +1004,111 @@
         </is>
       </c>
       <c r="M8" t="n">
+        <v>180</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/caja 14 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>643</v>
+      </c>
+      <c r="T8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>100102006</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Pomelo</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Start Ruby</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>60</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N9" t="n">
         <v>11000</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O9" t="n">
         <v>11000</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>11000</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>$/caja 14 kilos</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S8" t="n">
+      <c r="S9" t="n">
         <v>786</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T9" t="n">
         <v>14</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44397</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44162</v>
+        <v>44176</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
         <v>7000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44176</v>
+        <v>44162</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>7000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44491</v>
+        <v>44400</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44397</v>
+        <v>44491</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N9" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O9" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P9" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>786</v>
+        <v>643</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44397</v>
+        <v>44351</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44176</v>
+        <v>44397</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P3" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44208</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44176</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44351</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44491</v>
+        <v>44309</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44351</v>
+        <v>44162</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44397</v>
+        <v>44351</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44162</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
         <v>7000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44208</v>
+        <v>44176</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44176</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44397</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44400</v>
+        <v>44208</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N8" t="n">
         <v>10000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44309</v>
+        <v>44491</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44162</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44351</v>
+        <v>44397</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44351</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -687,13 +687,13 @@
         <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44176</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
         <v>7000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44162</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44397</v>
+        <v>44176</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44176</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44397</v>
+        <v>44351</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44351</v>
+        <v>44397</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44176</v>
+        <v>44208</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44208</v>
+        <v>44162</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44176</v>
+        <v>44491</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P2" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44351</v>
+        <v>44208</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N3" t="n">
         <v>10000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44351</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -767,13 +767,13 @@
         <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44208</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
         <v>10000</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44162</v>
+        <v>44176</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
         <v>7000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44491</v>
+        <v>44162</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44397</v>
+        <v>44176</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44162</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>7000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44176</v>
+        <v>44397</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44162</v>
+        <v>44208</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44491</v>
+        <v>44351</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44176</v>
+        <v>44400</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44351</v>
+        <v>44397</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44176</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44397</v>
+        <v>44491</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>786</v>
+        <v>643</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44208</v>
+        <v>44162</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44351</v>
+        <v>44208</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N2" t="n">
         <v>10000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44400</v>
+        <v>44351</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
         <v>10000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44397</v>
+        <v>44176</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44397</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44176</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44491</v>
+        <v>44162</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44162</v>
+        <v>44309</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
         <v>7000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44400</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44351</v>
+        <v>44491</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44176</v>
+        <v>44351</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44397</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44397</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44309</v>
+        <v>44176</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
         <v>7000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44491</v>
+        <v>44400</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44351</v>
+        <v>44397</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44176</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44397</v>
+        <v>44162</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44162</v>
+        <v>44491</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44176</v>
+        <v>44351</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44176</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
         <v>7000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44400</v>
+        <v>44397</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44397</v>
+        <v>44208</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44176</v>
+        <v>44162</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>7000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44162</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44491</v>
+        <v>44400</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44491</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P2" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44176</v>
+        <v>44162</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
         <v>7000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44208</v>
+        <v>44351</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
         <v>10000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44176</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
         <v>7000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44309</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44351</v>
+        <v>44208</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N9" t="n">
         <v>10000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44491</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44162</v>
+        <v>44351</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44397</v>
+        <v>44176</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44351</v>
+        <v>44208</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N5" t="n">
         <v>10000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44176</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
         <v>7000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44400</v>
+        <v>44162</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44208</v>
+        <v>44397</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44176</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44351</v>
+        <v>44397</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44176</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
         <v>7000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44208</v>
+        <v>44400</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>10000</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44351</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44162</v>
+        <v>44491</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44397</v>
+        <v>44162</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44176</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44397</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P3" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44351</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -687,13 +687,13 @@
         <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44400</v>
+        <v>44176</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44351</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44491</v>
+        <v>44397</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O8" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44208</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N2" t="n">
         <v>10000</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44351</v>
+        <v>44400</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>10000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44176</v>
+        <v>44491</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44351</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
         <v>10000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44176</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44397</v>
+        <v>44162</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44162</v>
+        <v>44397</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P9" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44400</v>
+        <v>44351</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
         <v>10000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44491</v>
+        <v>44162</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44351</v>
+        <v>44397</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44176</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44162</v>
+        <v>44176</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
         <v>7000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44397</v>
+        <v>44309</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44176</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44400</v>
+        <v>44491</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44351</v>
+        <v>44208</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N4" t="n">
         <v>10000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44162</v>
+        <v>44400</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44397</v>
+        <v>44351</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44397</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44176</v>
+        <v>44309</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
         <v>7000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44309</v>
+        <v>44162</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
         <v>7000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44176</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>7000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44491</v>
+        <v>44400</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44208</v>
+        <v>44397</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44400</v>
+        <v>44208</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N5" t="n">
         <v>10000</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44351</v>
+        <v>44162</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44397</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>786</v>
+        <v>643</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44309</v>
+        <v>44176</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
         <v>7000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44162</v>
+        <v>44351</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44176</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
         <v>7000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44400</v>
+        <v>44208</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N3" t="n">
         <v>10000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44397</v>
+        <v>44351</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44208</v>
+        <v>44491</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44397</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P6" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44309</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44176</v>
+        <v>44162</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
         <v>7000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44351</v>
+        <v>44400</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
         <v>10000</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44176</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>7000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44208</v>
+        <v>44162</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44351</v>
+        <v>44400</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>10000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44491</v>
+        <v>44176</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44397</v>
+        <v>44351</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44162</v>
+        <v>44397</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44400</v>
+        <v>44208</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N9" t="n">
         <v>10000</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44176</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
         <v>7000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44162</v>
+        <v>44208</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44400</v>
+        <v>44351</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
         <v>10000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44176</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
         <v>7000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44351</v>
+        <v>44397</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44397</v>
+        <v>44491</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>786</v>
+        <v>643</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44208</v>
+        <v>44162</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44176</v>
+        <v>44208</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44208</v>
+        <v>44397</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44351</v>
+        <v>44162</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44176</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
         <v>7000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44397</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44309</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44491</v>
+        <v>44351</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44162</v>
+        <v>44491</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44176</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44397</v>
+        <v>44208</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="N3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44162</v>
+        <v>44351</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44176</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
         <v>7000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44397</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44351</v>
+        <v>44491</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44491</v>
+        <v>44162</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44162</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44397</v>
+        <v>44400</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44162</v>
+        <v>44208</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44176</v>
+        <v>44397</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44176</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44351</v>
+        <v>44309</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1007,13 +1007,13 @@
         <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44491</v>
+        <v>44351</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44162</v>
+        <v>44208</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44400</v>
+        <v>44176</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44208</v>
+        <v>44351</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
         <v>10000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44397</v>
+        <v>44162</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44176</v>
+        <v>44491</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P6" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44397</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44351</v>
+        <v>44309</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1087,13 +1087,13 @@
         <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44176</v>
+        <v>44162</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
         <v>7000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44351</v>
+        <v>44491</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44162</v>
+        <v>44397</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44491</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44397</v>
+        <v>44176</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44400</v>
+        <v>44351</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
         <v>10000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44309</v>
+        <v>44208</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44208</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44162</v>
+        <v>44491</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44491</v>
+        <v>44162</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44397</v>
+        <v>44351</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44397</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44176</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44351</v>
+        <v>44309</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1007,13 +1007,13 @@
         <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44208</v>
+        <v>44176</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44351</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>10000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44491</v>
+        <v>44162</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P3" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44162</v>
+        <v>44491</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44351</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -767,13 +767,13 @@
         <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44397</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44397</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44351</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>10000</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44162</v>
+        <v>44208</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44491</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44397</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44162</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44397</v>
+        <v>44351</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44400</v>
+        <v>44176</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44176</v>
+        <v>44491</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44208</v>
+        <v>44397</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44351</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -687,13 +687,13 @@
         <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44397</v>
+        <v>44162</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44351</v>
+        <v>44176</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44176</v>
+        <v>44400</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44162</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
         <v>7000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44397</v>
+        <v>44176</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P3" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44351</v>
+        <v>44400</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>10000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44162</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
         <v>7000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44176</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44400</v>
+        <v>44351</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
         <v>10000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44491</v>
+        <v>44397</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O9" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P9" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44162</v>
+        <v>44208</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44176</v>
+        <v>44351</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44400</v>
+        <v>44162</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44397</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44491</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44351</v>
+        <v>44176</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44397</v>
+        <v>44309</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44162</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44351</v>
+        <v>44176</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44162</v>
+        <v>44400</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44397</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44491</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44176</v>
+        <v>44351</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44309</v>
+        <v>44397</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P9" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44176</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44351</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -607,13 +607,13 @@
         <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44162</v>
+        <v>44351</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44162</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44176</v>
+        <v>44400</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44309</v>
+        <v>44208</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44176</v>
+        <v>44162</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
         <v>7000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44351</v>
+        <v>44491</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44397</v>
+        <v>44176</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44491</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44162</v>
+        <v>44351</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44400</v>
+        <v>44208</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N8" t="n">
         <v>10000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44208</v>
+        <v>44397</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44162</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>7000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44491</v>
+        <v>44176</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44176</v>
+        <v>44397</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44491</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44351</v>
+        <v>44162</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44397</v>
+        <v>44351</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44176</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
         <v>7000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44400</v>
+        <v>44208</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N3" t="n">
         <v>10000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44176</v>
+        <v>44351</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44397</v>
+        <v>44400</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44491</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44208</v>
+        <v>44491</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44351</v>
+        <v>44397</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44176</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>7000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44208</v>
+        <v>44400</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>10000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44351</v>
+        <v>44176</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44400</v>
+        <v>44397</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44491</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P6" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44491</v>
+        <v>44208</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44397</v>
+        <v>44351</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44208</v>
+        <v>44400</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>10000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44351</v>
+        <v>44162</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44400</v>
+        <v>44491</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44162</v>
+        <v>44309</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
         <v>7000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44491</v>
+        <v>44351</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44400</v>
+        <v>44208</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N3" t="n">
         <v>10000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44162</v>
+        <v>44351</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44491</v>
+        <v>44400</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44162</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
         <v>7000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44351</v>
+        <v>44491</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44176</v>
+        <v>44162</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
         <v>7000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44400</v>
+        <v>44208</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N3" t="n">
         <v>10000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44162</v>
+        <v>44397</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44491</v>
+        <v>44176</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44351</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
         <v>10000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44351</v>
+        <v>44309</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1007,13 +1007,13 @@
         <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44397</v>
+        <v>44400</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44397</v>
+        <v>44176</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44176</v>
+        <v>44491</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44309</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44400</v>
+        <v>44397</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44162</v>
+        <v>44208</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44208</v>
+        <v>44162</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44176</v>
+        <v>44397</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44491</v>
+        <v>44351</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44351</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
         <v>10000</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44400</v>
+        <v>44176</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44397</v>
+        <v>44491</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N9" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O9" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P9" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>786</v>
+        <v>643</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44162</v>
+        <v>44491</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44397</v>
+        <v>44162</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44351</v>
+        <v>44397</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44176</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44176</v>
+        <v>44351</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44491</v>
+        <v>44309</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44351</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>10000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44491</v>
+        <v>44208</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44162</v>
+        <v>44491</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44397</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44176</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>14</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44162</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44351</v>
+        <v>44397</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44309</v>
+        <v>44176</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
         <v>7000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44351</v>
+        <v>44162</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44208</v>
+        <v>44176</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44491</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44351</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -767,13 +767,13 @@
         <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N6" t="n">
         <v>10000</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44162</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44176</v>
+        <v>44491</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44162</v>
+        <v>44351</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44176</v>
+        <v>44208</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44491</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44351</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -767,13 +767,13 @@
         <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
         <v>10000</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44162</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44491</v>
+        <v>44176</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44162</v>
+        <v>44351</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44176</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
         <v>7000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44397</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44351</v>
+        <v>44491</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
         <v>10000</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44176</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44397</v>
+        <v>44162</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44491</v>
+        <v>44208</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44351</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>10000</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44176</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
         <v>7000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44397</v>
+        <v>44491</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N4" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O4" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P4" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>786</v>
+        <v>643</v>
       </c>
       <c r="T4" t="n">
         <v>14</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44491</v>
+        <v>44162</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>14</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44351</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
         <v>10000</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44176</v>
+        <v>44397</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="T7" t="n">
         <v>14</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44162</v>
+        <v>44208</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T8" t="n">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>14</v>
